--- a/static/AS2.Production.Relationships.xlsx
+++ b/static/AS2.Production.Relationships.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\08187U744\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhyan/Documents/Tasks/HTTP_API_Server/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC14AD40-92C8-462F-BBE7-D6105073184B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78B11D2E-F780-1145-8BAF-04D5709D26DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25380" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,6 +416,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -766,9 +767,9 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,7 +837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -898,7 +899,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -960,7 +961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>124</v>
       </c>
